--- a/data/input/absenteeism_data_47.xlsx
+++ b/data/input/absenteeism_data_47.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82899</v>
+        <v>64232</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lorena Moraes</t>
+          <t>Giovanna da Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>10771.69</v>
+        <v>10602.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50613</v>
+        <v>59522</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Eduarda Rocha</t>
+          <t>Vitória Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>8245.559999999999</v>
+        <v>8451.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55990</v>
+        <v>60607</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitor Hugo Pereira</t>
+          <t>Emanuella Rezende</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>9140.18</v>
+        <v>3952.87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>26547</v>
+        <v>43135</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daniela Ribeiro</t>
+          <t>Pietra Ramos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,82 +584,82 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45098</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>8917.700000000001</v>
+        <v>5857.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30677</v>
+        <v>86046</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luna da Rocha</t>
+          <t>Sr. Levi da Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>6022.75</v>
+        <v>6058.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>83966</v>
+        <v>37521</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lucca Costa</t>
+          <t>Mirella Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>11875.26</v>
+        <v>11621.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94188</v>
+        <v>61364</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rafael da Rosa</t>
+          <t>Agatha da Conceição</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,85 +668,85 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="G8" t="n">
-        <v>9216.9</v>
+        <v>6065.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50584</v>
+        <v>9952</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Breno Pereira</t>
+          <t>Ana Luiza Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>6947.44</v>
+        <v>10082.09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65257</v>
+        <v>50836</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isadora Martins</t>
+          <t>Maria Luiza Melo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>11036.01</v>
+        <v>3840.94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21992</v>
+        <v>22337</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sofia Ramos</t>
+          <t>Maria Cecília Novaes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>9672.379999999999</v>
+        <v>7585.16</v>
       </c>
     </row>
   </sheetData>
